--- a/data-raw/input/cpiadocumentation.xlsx
+++ b/data-raw/input/cpiadocumentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/iedochie_worldbank_org/Documents/Documents/GitProjects/cpiaetl/data-raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{775108B0-FC57-4EA8-B1A0-DDD1B9616492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C544805-CC53-4D01-A920-023714D48C21}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{775108B0-FC57-4EA8-B1A0-DDD1B9616492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BAC745A-4C4B-4791-A11C-F35F6442DD6A}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{4CD91880-E7B2-4458-BBF1-E02DE4D3B65E}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{4CD91880-E7B2-4458-BBF1-E02DE4D3B65E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>question</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Quality of the legal and judicial system</t>
-  </si>
-  <si>
-    <t>vdem_core_v2juaccnt, bs_bti_q3_2, vdem_core_v2juhcind, wjp_rol_2_2, idea_gsod_v_21_05, wjp_rol_4_3, wjp_rol_7_7, wjp_rol_7_1, wjp_rol_7_6, wjp_rol_7_5, vdem_core_v2clacjstm, vdem_core_v2clacjstw, wjp_rol_8_2, wjp_rol_8_1, wjp_rol_8_4</t>
   </si>
   <si>
     <t>Crime and violence as an impediment to economic activity</t>
@@ -194,20 +191,11 @@
     <t>wjp_rol_8_1, wjp_rol_8_2, wjp_rol_8_4</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-wb_pefa_pi_2016_11, wb_pefa_pi_2016_12, wb_pefa_pi_2016_13, wb_pefa_pi_2016_14, 
-wb_pefa_pi_2016_15, wb_pefa_pi_2016_16, 
-wb_pefa_pi_2016_17, wb_pefa_pi_2016_18</t>
-  </si>
-  <si>
     <t>bs_bti_q15_1</t>
   </si>
   <si>
     <t xml:space="preserve">	
 vdem_core_v2peasjpol, vdem_core_v2peasjsoecon</t>
-  </si>
-  <si>
-    <t>vdem_core_v2clrspct, vdem_core_v2stcritrecadm</t>
   </si>
   <si>
     <t>legal framework for secure property and contract rights, including predictability and impartiality of laws and regulations</t>
@@ -235,11 +223,20 @@
     <t>integrity in the management of public resources, including aid and natural resource revenues</t>
   </si>
   <si>
-    <t>wb_gtmi_pfm_mis, wb_pefa_pi_2016_05,	wb_pefa_pi_2016_10, wb_pefa_pi_2016_26, wb_pefa_pi_2016_27, wb_pefa_pi_2016_28, wb_pefa_pi_2016_29, wb_pefa_pi_2016_30</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 	
 bs_bti_q8_2, wb_pefa_pi_2016_19, wb_pefa_pi_2016_20, wb_pefa_pi_2016_18, wb_pefa_pi_2016_21, wb_pefa_pi_2016_23, wb_pefa_pi_2016_24, wb_pefa_pi_2016_25</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Data360</t>
+  </si>
+  <si>
+    <t>vdem_core_v2juaccnt, bs_bti_q3_2, vdem_core_v2juhcind, wjp_rol_2_2, idea_gsod_v_21_05, wjp_rol_4_3, wjp_rol_7_7, wjp_rol_7_1, wjp_rol_7_6, wjp_rol_7_5, vdem_core_v2clacjstm, vdem_core_v2clacjstw, wjp_rol_8_2, wjp_rol_8_1, wjp_rol_8_4, vdem_core_v2x_rule</t>
+  </si>
+  <si>
+    <t>vdem_core_v2clrspct, vdem_core_v2stcritrecadm, wb_spi_census_and_survey_index, wb_spi_std_and_methods, bs_bti_q15_2</t>
   </si>
 </sst>
 </file>
@@ -645,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365AC35-536C-44D2-ABB0-4C6F17CA8BB9}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -681,7 +678,7 @@
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -690,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -699,9 +696,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -710,10 +707,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -721,39 +718,39 @@
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -761,40 +758,40 @@
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -802,56 +799,59 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -859,19 +859,19 @@
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -879,19 +879,19 @@
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -899,19 +899,19 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -919,19 +919,19 @@
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
